--- a/Tasks07022021.xlsx
+++ b/Tasks07022021.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Time</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -469,6 +474,11 @@
           <t>2021-02-06 07:59:00</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>This is the first comment</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,6 +499,7 @@
           <t>2021-02-06 09:00:00</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -509,6 +520,7 @@
           <t>2021-02-06 09:00:00</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
